--- a/biology/Médecine/William_Somerset_Maugham/William_Somerset_Maugham.xlsx
+++ b/biology/Médecine/William_Somerset_Maugham/William_Somerset_Maugham.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Somerset Maugham [ˈsʌməsɪt mɔːm] (Paris, 25 janvier 1874 – Nice, 16 décembre 1965) est un romancier, nouvelliste, dramaturge britannique, docteur en médecine et espion. Il fut l'un des écrivains britanniques les plus populaires de son époque.
 </t>
@@ -511,7 +523,9 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">William Somerset Maugham naît à Paris en 1874, quatrième fils de parents britanniques vivant en France et qui avaient organisé la naissance de leur enfant pour qu’elle ait lieu à l’ambassade britannique, de telle façon que – si ce n’est pour la géographie, du moins pour la loi – il soit né au Royaume-Uni, ce qui par ailleurs lui permettrait de ne pas être soumis au service militaire français.
 Son père, Robert Ormond Maugham, âgé alors de cinquante ans, était un juriste anglais chargé des affaires juridiques de l'ambassade britannique à Paris. Son grand-père, également prénommé Robert, était également un juriste de renom et l'un des fondateurs de l’English Law Society. On s'attendait donc à ce que l’enfant marchât sur leurs traces. Ce fut en fait son frère aîné Frederic Herbert Maugham qui embrassa la carrière juridique et fut lord chancelier entre 1938 et 1939.
@@ -544,12 +558,14 @@
           <t>Enfance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’enfant grandit au cœur de Paris, dans un monde « proustien[4] » de bourgeois fortunés et cosmopolites. Le salon familial accueille écrivains et peintres, l'appartement est riche en livres et objets d'art. Confié à des gouvernantes françaises, il ne fréquente que des petits Parisiens de bonne famille, passe l'été à Trouville, l'hiver à Pau avec sa mère, beauté[5] et modèle de piété, qu'il vénère. Le premier auteur qu’il lit est Jean de La Fontaine, dont il récite les fables à sa mère à l’heure du thé[6].
-« It was France that educated me, France that taught me to value beauty, distinction, wit and good sense, France that taught me to write[7]. »
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’enfant grandit au cœur de Paris, dans un monde « proustien » de bourgeois fortunés et cosmopolites. Le salon familial accueille écrivains et peintres, l'appartement est riche en livres et objets d'art. Confié à des gouvernantes françaises, il ne fréquente que des petits Parisiens de bonne famille, passe l'été à Trouville, l'hiver à Pau avec sa mère, beauté et modèle de piété, qu'il vénère. Le premier auteur qu’il lit est Jean de La Fontaine, dont il récite les fables à sa mère à l’heure du thé.
+« It was France that educated me, France that taught me to value beauty, distinction, wit and good sense, France that taught me to write. »
 Il a huit ans lorsque sa mère meurt à quarante et un ans de la tuberculose, après avoir accouché d’un fils mort-né. Traumatisé par cette disparition, Somerset gardera la photo de sa mère dans sa chambre toute sa vie. Deux ans plus tard, son père meurt d'un cancer. Ces morts précoces auraient déclenché le bégaiement sévère qui l'affligea toute sa vie.
-Bien que ne parlant que français[8], il est recueilli par un oncle paternel, Henry MacDonald Maugham, vicaire anglican de Whitstable, un petit port du Kent dans le sud de l’Angleterre. Cet oncle, quinquagénaire snob marié à une aristocrate allemande, sans enfant, sera, semble-t-il, le modèle du missionnaire de la célèbre nouvelle Rain[9].
+Bien que ne parlant que français, il est recueilli par un oncle paternel, Henry MacDonald Maugham, vicaire anglican de Whitstable, un petit port du Kent dans le sud de l’Angleterre. Cet oncle, quinquagénaire snob marié à une aristocrate allemande, sans enfant, sera, semble-t-il, le modèle du missionnaire de la célèbre nouvelle Rain.
 De 1885 à 1889, il étudie à la King’s School de Cantorbéry. En hiver 1888, à la suite d'une pleurésie, il fait un séjour à Hyères (Côte d'azur), puis un second séjour l’hiver suivant et part pour Heidelberg, où il étudie l’allemand de 1890 à 1892.
 </t>
         </is>
@@ -579,19 +595,21 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Somerset Maugham est bisexuel[10],[11],[12] ; sa vie personnelle a été à ce propos parfois rapprochée de celle d'Oscar Wilde[13].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Somerset Maugham est bisexuel ; sa vie personnelle a été à ce propos parfois rapprochée de celle d'Oscar Wilde.
 En 1892, il entreprend des études de médecine.
 En 1894, il effectue un voyage en Italie, avec escale à Paris lors de vacances universitaires. Il aimera toujours la liberté tant artistique que sexuelle qu'il y découvre.
 En 1895, âgé de vingt et un ans, étudiant en médecine à Londres, il voit Oscar Wilde, qu’il admire. Celui-ci vient de rencontrer le succès avec sa brillante comédie L'Importance d'être Constant (The Importance of Being Earnest) mais doit affronter le scandale de ses relations homosexuelles. Dès lors, Maugham décide de vivre sa vie affective hors de ce pays si rigoriste.
-Toute sa vie, il errera sur le plan linguistique comme sexuel, en quête d’ancrage[14].
+Toute sa vie, il errera sur le plan linguistique comme sexuel, en quête d’ancrage.
 En 1897, il obtient son diplôme de médecine ; il tente de vivre de sa plume.
 En 1915, pendant la Première Guerre mondiale, Maugham rencontre un responsable du renseignement qui le recrute au sein du Secret Intelligence Service (SIS). Son premier roman, Servitude humaine (Of Human Bondage), venant de paraître, le SIS estime que son activité d'auteur pourrait lui servir de couverture à ses activités d'espionnage et il est ainsi envoyé à Genève. En  juin 1917, Maugham est envoyé par Sir William Weisman, un responsable du SIS, en Russie à Saint-Pétersbourg pour une mission secrète dont le but est de soutenir le gouvernement provisoire contre les Bolchéviques, qui finalement prendront le pouvoir quatre mois et demi plus tard. Certaines de ses histoires d'expériences d'espionnage violaient la loi britannique en matière de secret ;  Maugham a dû se résoudre à les détruire.
 En 1915, année de la naissance de sa fille Liza, qu'il a eue avec Syrie Wellcome qu'il épouse en 1917, il entame une liaison avec Gerald Haxton, jeune Américain de vingt-trois ans, qui se poursuivra jusqu'à la mort de ce dernier en 1944. Il passera la seconde partie de sa vie avec Alan Searle (1905-1985), surnommé le « bronzino boy » (rencontré en 1928), qui veillera sur lui avec beaucoup de tendresse jusqu'à la fin. Pour le remercier, Maugham l'adoptera. Gerald restera cependant le grand amour de sa vie.
 A partir de 1927 il habite en France à la Villa La Mauresque au cap Ferrat (Alpes-Maritimes).  
-Il pourrait avoir été l’auteur le mieux payé des années 1930[15].
-Maugham est nommé dans l'Ordre des compagnons d'honneur, CH, le 10 juin 1954 (London Gazette du 10 juin)[16].
+Il pourrait avoir été l’auteur le mieux payé des années 1930.
+Maugham est nommé dans l'Ordre des compagnons d'honneur, CH, le 10 juin 1954 (London Gazette du 10 juin).
 En 1954, dans un essai, il établit une liste de dix romanciers et des dix romans qui, selon lui, appartiennent à la catégorie des plus grands (cinq en anglais, trois en français, deux en russe) :
 Histoire de Tom Jones, enfant trouvé, de Henry Fielding ;
 Orgueil et Préjugés, de Jane Austen ;
@@ -632,11 +650,48 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pendant sa longue carrière d'écrivain, Maugham publie des comédies, des romans psychologiques, des récits d'espionnage et plus de cent nouvelles.
-Romans
-1897 : Liza of Lambeth (Liza de Lambeth)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>William_Somerset_Maugham</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Somerset_Maugham</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1897 : Liza of Lambeth (Liza de Lambeth)
 1898 : The Making of a Saint
 1901 : The Hero
 1902 : Mrs Craddock (Mrs Craddock)
@@ -657,9 +712,43 @@
 1944 : The Razor's Edge (Le Fil du rasoir)
 1946 : Then and Now (Plus ça change ou La Mandragore)
 1946 : Of Human Bondage : An Address
-1948 : Catalina (Catalina)
-Théâtre
-Année de publication originale, titre original, précisions et titre français s'il y a lieu
+1948 : Catalina (Catalina)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>William_Somerset_Maugham</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Somerset_Maugham</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Année de publication originale, titre original, précisions et titre français s'il y a lieu
 1903 : Marriages Are Made in Heaven, première version créée à Berlin en 1902 sous le titre Schiffbrüchig
 1903 : A Man of Honour
 1904 : Mademoiselle Zampa
@@ -691,9 +780,44 @@
 1932 : For Services Rendered
 1933 : The Mask and the Face, satire inspirée d'une pièce de L. Chiarelli
 1933 : Sheppey
-Recueils de nouvelles
-1899 : Orientations
-1921 : The Trembling of a Leaf (L'Archipel aux sirènes[17])
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>William_Somerset_Maugham</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Somerset_Maugham</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1899 : Orientations
+1921 : The Trembling of a Leaf (L'Archipel aux sirènes)
 1926 : The Casuarina Tree (Le Sortilège malais), l'un des 100 Key Books of The Modern Movement 1880-1950 de Cyril Connolly
 1928 : Ashenden: Or the British Agent (Mr Ashenden, agent secret)
 1930 : The Letter (Stories of Crime)
@@ -705,8 +829,43 @@
 1939 : Princess September and The Nightingale
 1940 : The Mixture as Before
 1947 : Creatures of Circumstance (Rencontres et Hasards)
-1951 : The Complete Short Stories
-Nouvelles
+1951 : The Complete Short Stories</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>William_Somerset_Maugham</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Somerset_Maugham</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ordre alphabétique anglais, année de publication originale, v1-4: Volume des "Complete Short Stories (1951)" dans lequel est reprise la nouvelle, titre de la traduction française
 1. A Bad Example, 1899
 2. A Casual Affair, novembre 1934 (v4 ; Une passade)
@@ -832,7 +991,43 @@
 122. The Yellow Streak, août 1925 (v1 ; La Peur dans le sang)
 123. Virtue, février 1931 (v2 ;Vertu)
 124. Winter Cruise, juin 1943 (v4 ; Croisière d'hiver)
-Critiques littéraires, livres de voyage et autres publications
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>William_Somerset_Maugham</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Somerset_Maugham</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Critiques littéraires, livres de voyage et autres publications</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1905 : The Land of the Blessed Virgin: Sketches and Impressions in Andalusia
 1922 : On a Chinese Screen, recueil d'articles et d'essais contenant quelques nouvelles (Le Paravent chinois)
 1930 : The Gentleman In The Parlour: A Record of a Journey From Rangoon to Haiphong, recueil contenant relations de voyage, essais, articles et quelques nouvelles (Un gentleman en Asie)
@@ -857,34 +1052,39 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>William_Somerset_Maugham</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/William_Somerset_Maugham</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>William_Somerset_Maugham</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Somerset_Maugham</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Adaptations et Hommages</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Cinéma
-Liste partielle
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Liste partielle
 1926 : Le Magicien (The Magician), film muet américain réalisé par Rex Ingram, avec Alice Terry et Paul Wegener.
 1932 : Pluie (Rain), film américain de Lewis Milestone, avec Joan Crawford et Walter Huston.
 1933 : Haute Société (Our Betters), film américain réalisé par George Cukor, avec Constance Bennett ; d'après la pièce de théâtre éponyme.
@@ -902,41 +1102,145 @@
 1964 : L'Ange pervers (Of Human Bondage), film américain réalisé par Ken Hughes, avec Kim Novak et Laurence Harvey ; 3e adaptation du roman Of Human Bondage scénarisée par Somerset Maugham.
 2000 : Il suffit d'une nuit (Up at the Villa), film anglo-américain réalisé par Philip Haas, avec Kristin Scott Thomas et Sean Penn ; d’après la nouvelle éponyme.
 2005 : Adorable Julia (Being Julia), film canado-américano-hongrois réalisé par István Szabó, avec Annette Bening, Jeremy Irons ; d’après le roman La Comédienne.
-2006 : Le Voile des illusions (The Painted Veil), film sino-américain réalisé par John Curran, avec Naomi Watts, Edward Norton, Liev Schreiber et Diana Rigg ; 3e adaptation du roman éponyme.
-Télévision
-1978 : Théâtre (Teātris), film letton réalisé par Jānis Streičs d'après le roman La Comédienne, avec Vija Artmane ; 1re adaptation du roman.
-Théâtre
-1954 : Adorable Julia de Marc-Gilbert Sauvajon et Guy Bolton d'après Somerset Maugham, mise en scène Jean Wall, Théâtre du Gymnase (Paris)
-Chanson
-Somerset Maugham a servi d'inspiration à Alain Souchon pour l'écriture d'une chanson intitulée Somerset Maugham, sortie en single en 1981. Elle est devenue une des chansons incontournables d'Alain Souchon.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>William_Somerset_Maugham</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/William_Somerset_Maugham</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+2006 : Le Voile des illusions (The Painted Veil), film sino-américain réalisé par John Curran, avec Naomi Watts, Edward Norton, Liev Schreiber et Diana Rigg ; 3e adaptation du roman éponyme.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>William_Somerset_Maugham</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Somerset_Maugham</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Adaptations et Hommages</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1978 : Théâtre (Teātris), film letton réalisé par Jānis Streičs d'après le roman La Comédienne, avec Vija Artmane ; 1re adaptation du roman.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>William_Somerset_Maugham</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Somerset_Maugham</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Adaptations et Hommages</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1954 : Adorable Julia de Marc-Gilbert Sauvajon et Guy Bolton d'après Somerset Maugham, mise en scène Jean Wall, Théâtre du Gymnase (Paris)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>William_Somerset_Maugham</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Somerset_Maugham</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Adaptations et Hommages</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Chanson</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Somerset Maugham a servi d'inspiration à Alain Souchon pour l'écriture d'une chanson intitulée Somerset Maugham, sortie en single en 1981. Elle est devenue une des chansons incontournables d'Alain Souchon.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>William_Somerset_Maugham</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Somerset_Maugham</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>(en) W. Somerset Maugham, Collected Stories, Everyman's Library, 2004
 W. Somerset Maugham, Les Nouvelles complètes, préface de Robert Merle, Éditions Omnibus, 1992</t>
